--- a/biology/Botanique/Heteropsis/Heteropsis.xlsx
+++ b/biology/Botanique/Heteropsis/Heteropsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteropsis est un genre d'environ 14 espèces de plantes de la famille des Araceae originaire du centre et du sud de l'Amérique tropicale (avec une séparation entre le bassin de l'Amazone et la zone de la forêt atlantique brésilienne)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteropsis est un genre d'environ 14 espèces de plantes de la famille des Araceae originaire du centre et du sud de l'Amérique tropicale (avec une séparation entre le bassin de l'Amazone et la zone de la forêt atlantique brésilienne).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Heteropsis boliviana Rusby
 Heteropsis ecuadorensis Sodiro
